--- a/data/Erick GutiérrezT4-2024.xlsx
+++ b/data/Erick GutiérrezT4-2024.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:I61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="F10" sqref="F10:F61"/>
@@ -503,6 +503,8 @@
     <col width="25" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -510,6 +512,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -517,6 +520,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -594,8 +598,6 @@
       <c r="F11" s="9" t="n">
         <v>20.99637946</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
@@ -1513,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E38"/>
@@ -1525,6 +1527,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1532,6 +1536,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1539,6 +1544,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1766,7 +1772,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr"/>
       <c r="D25" s="2" t="n">
         <v>3480</v>
       </c>
@@ -1945,7 +1950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
@@ -1957,6 +1962,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1964,6 +1971,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1971,6 +1979,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
